--- a/GL10_TestData_OpenAccountingPeriod_21B.xlsx
+++ b/GL10_TestData_OpenAccountingPeriod_21B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GNB GL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PriyankJain\Desktop\23June-GL Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9467E80A-9EEF-491A-A2DA-FD5E207D7191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514AF987-DAD6-4740-8ABB-3ED1E65341C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,12 +43,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Ledger</t>
-  </si>
-  <si>
-    <t>US Primary Ledger</t>
-  </si>
-  <si>
     <t>LowWait</t>
   </si>
   <si>
@@ -73,10 +67,16 @@
     <t>HighestExplicitWait</t>
   </si>
   <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>2020-11</t>
+  </si>
+  <si>
     <t>GNB Consol</t>
   </si>
   <si>
-    <t>2020-12</t>
+    <t>Period Should be CLOSED</t>
   </si>
 </sst>
 </file>
@@ -108,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,25 +117,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -168,33 +150,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,111 +488,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="31.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="26.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="20.26953125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.81640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="2"/>
+    <col min="12" max="12" width="31.36328125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.1796875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3">
+        <v>30</v>
+      </c>
+      <c r="G2" s="3">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3">
+        <v>30</v>
+      </c>
+      <c r="I2" s="3">
+        <v>60</v>
+      </c>
+      <c r="J2" s="3">
+        <v>120</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="10">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10">
-        <v>6</v>
-      </c>
-      <c r="C2" s="10">
-        <v>10</v>
-      </c>
-      <c r="D2" s="10">
-        <v>30</v>
-      </c>
-      <c r="E2" s="10">
-        <v>15</v>
-      </c>
-      <c r="F2" s="10">
-        <v>30</v>
-      </c>
-      <c r="G2" s="10">
-        <v>60</v>
-      </c>
-      <c r="H2" s="10">
-        <v>120</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
